--- a/medicine/Psychotrope/L'Âme_du_vin/L'Âme_du_vin.xlsx
+++ b/medicine/Psychotrope/L'Âme_du_vin/L'Âme_du_vin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%82me_du_vin</t>
+          <t>L'Âme_du_vin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Âme du vin est un film documentaire français sur le thème du vin réalisé par Marie-Ange Gorbanevsky sorti en 2019.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%82me_du_vin</t>
+          <t>L'Âme_du_vin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Les vins naissent de la rencontre de la terre, du ciel, et de l’homme… Chaque année en Bourgogne, la réussite de leur millésime est une véritable épopée. Le travail de la vigne et de la cave au fil des saisons aboutit à la création de vins exceptionnels, vivants, recherchés et adulés dans le monde entier : Romanée-Conti, Gevrey-Chambertin, Chambolle-Musigny, Meursault, Volnay… Ces vins portent en eux la parcelle de terre dont ils sont issus et l'âme des hommes qui leur ont donné vie. »
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27%C3%82me_du_vin</t>
+          <t>L'Âme_du_vin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : L’Âme du vin
 Réalisation : Marie-Ange Gorbanevsky
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27%C3%82me_du_vin</t>
+          <t>L'Âme_du_vin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Intervenants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bernard Noblet : Ancien chef de cave du Domaine de la Romanée-Conti
 Christophe Roumier : Vigneron, Domaine Georges Roumier
